--- a/biology/Botanique/Teramnus/Teramnus.xlsx
+++ b/biology/Botanique/Teramnus/Teramnus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Teramnus est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire des régions tropicales d'Afrique, d'Asie et d'Amérique,  qui compte une dizaine d'espèces acceptées.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Teramnus », dérive du terme grec ancien, τεράμων (terámōn), ou τέραμνος (teramnos), qui signifie « tendre », en référence aux feuilles et aux gousses, ou aux poils tendres qui recouvrent les tiges, les pédoncules et le calice. Le terme latin, teramon ou teramum, désignait selon Pline une plante poussant près de Philippi[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Teramnus », dérive du terme grec ancien, τεράμων (terámōn), ou τέραμνος (teramnos), qui signifie « tendre », en référence aux feuilles et aux gousses, ou aux poils tendres qui recouvrent les tiges, les pédoncules et le calice. Le terme latin, teramon ou teramum, désignait selon Pline une plante poussant près de Philippi,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (2 octobre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (2 octobre 2018) :
 Teramnus buettneri (Harms) Baker f.
 Teramnus flexilis Benth.
 Teramnus hookerianus A.Sen
